--- a/docs/Solution Design.xlsx
+++ b/docs/Solution Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_Project_FEC\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sohail_DE_Project\fec_env\big-data-fec-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDEADE8-C498-4328-A1C6-5C01D3E0EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA63CBD-00B7-4507-856A-D04C2146B8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>candidate_master</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>file_name_csv</t>
+  </si>
+  <si>
+    <t>remove null</t>
+  </si>
+  <si>
+    <t>standard schema</t>
+  </si>
+  <si>
+    <t>fill null values</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61070A-7D4F-4946-BA72-C491ADB582F9}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBAB41-FAA9-4CBC-8331-9EA3C8E82FE4}">
-  <dimension ref="A3:K20"/>
+  <dimension ref="A3:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,6 +1395,7 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="22.109375" customWidth="1"/>
     <col min="11" max="11" width="17.44140625" customWidth="1"/>
@@ -1490,6 +1500,21 @@
       </c>
       <c r="K20" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
